--- a/data/dataexc.xlsx
+++ b/data/dataexc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\IA_TRABAJO\pythonProject1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E617B4-5AA4-4ABE-9C74-3344D7B9B34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE290480-5ADB-4E92-B198-571A9F813EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{799B7458-B9EC-424A-9A70-3B3D7E6A1E74}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nCoches</t>
   </si>
@@ -58,22 +58,13 @@
   <si>
     <t>result</t>
   </si>
-  <si>
-    <t xml:space="preserve">if result </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCHES </t>
-  </si>
-  <si>
-    <t>PEATONES</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,21 +83,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -128,35 +110,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -165,9 +123,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -178,9 +134,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -190,12 +144,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -204,32 +164,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -240,6 +251,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2655C6A7-D850-401C-A77F-8A808B9D62EB}" name="Tabla1" displayName="Tabla1" ref="A1:H150" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:H150" xr:uid="{BD987BC4-C78B-4CB3-BB7B-5B19E882A9CC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{240979BA-B3B7-4D54-A880-CCB219AC5E55}" name="nCoches" dataDxfId="9">
+      <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{89EAB55F-A8C6-4A71-90CF-182521499B83}" name="tCoches" dataDxfId="8">
+      <calculatedColumnFormula>RANDBETWEEN(0,C2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BBF6E771-5999-410F-8DC2-C6B7752AA43E}" name="T1Coche" dataDxfId="7">
+      <calculatedColumnFormula>RANDBETWEEN(0,G2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{82D6F69E-71EF-43AC-9AEB-A6C16FD3DD34}" name="nCaminos" dataDxfId="6">
+      <calculatedColumnFormula>1+RAND()*(1.4-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{315A890C-4AD8-4288-B217-773F6E89774F}" name="nPeatones" dataDxfId="5">
+      <calculatedColumnFormula>RANDBETWEEN(0,20)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3C0696BB-5169-48BC-9D42-286FCD7C6C09}" name="tPeatones" dataDxfId="4">
+      <calculatedColumnFormula>RANDBETWEEN(0,G2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7143F15B-A84C-497D-8300-A6B2E0F0FB62}" name="ultCambio" dataDxfId="3">
+      <calculatedColumnFormula>RANDBETWEEN(0,59)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{219070B3-40E8-4368-AA28-16E25E467451}" name="result" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,93 +581,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F740F66-27F4-4C4C-B6A9-D14979357AB1}">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0,C2)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(0,G2)</f>
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4">
         <f ca="1">1+RAND()*(1.4-1)</f>
-        <v>1.2269333982827222</v>
+        <v>1.1578251107925086</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">RANDBETWEEN(0,G2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">RANDBETWEEN(0,59)</f>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(0,C3)</f>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C66" ca="1" si="2">RANDBETWEEN(0,G3)</f>
-        <v>45</v>
-      </c>
-      <c r="D3" s="7">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D66" ca="1" si="3">1+RAND()*(1.4-1)</f>
-        <v>1.2511911310944905</v>
+        <v>1.1355248193267724</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" ca="1" si="4">RANDBETWEEN(0,20)</f>
@@ -633,455 +678,440 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F66" ca="1" si="5">RANDBETWEEN(0,G3)</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G66" ca="1" si="6">RANDBETWEEN(0,59)</f>
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1417605945748615</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="B5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1713463212485229</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3023733471651351</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3615597726261237</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1029798934291772</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0048482674341499</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.369388151399807</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" ca="1" si="4"/>
+      <c r="C10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2495140347472309</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0845691163714457</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0579513073379436</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0073431660760555</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1864205340358587</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1485290552092753</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3033553665952917</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2053891581484546</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>33</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1546728163614262</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ca="1" si="6"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2326408907394018</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>17</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1256823053848639</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0459451237335822</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0909358162180536</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1845744008425871</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F16" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>39</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1653419424433233</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2995199256975658</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0534251270681207</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2255241195207127</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1598639735133884</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>52</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1094,27 +1124,27 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1806657997506032</v>
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0904158236442467</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1123,31 +1153,31 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>16</v>
       </c>
-      <c r="D18" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2664534531115055</v>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3464247824410793</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1156,31 +1186,31 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1322756004444106</v>
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1709849491040389</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1189,31 +1219,31 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1155111968021494</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3070263718852126</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1226,27 +1256,27 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3333444119090783</v>
+        <v>25</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3339511186675057</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1255,31 +1285,31 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.186931133502535</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3806804162862834</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1288,31 +1318,31 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3122975557985312</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="B23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2234051002405573</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
-      </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1321,31 +1351,31 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0339892534881863</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1608207863244822</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1354,31 +1384,31 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.173820354228899</v>
+        <v>15</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1065520587433724</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1387,31 +1417,31 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0120888492625519</v>
+        <v>6</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1470527256954632</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -1424,27 +1454,27 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1227848002547764</v>
+        <v>19</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.283215057667225</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -1453,31 +1483,31 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3626609454499816</v>
+        <v>38</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0720735522089391</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1490,27 +1520,27 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2083549068148851</v>
+        <v>14</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0692598165020679</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1519,31 +1549,31 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2406278181340573</v>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0371066251947372</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -1552,31 +1582,31 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3275366932438375</v>
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1808963215662089</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1585,31 +1615,31 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2238153211321354</v>
+        <v>47</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1789038961799569</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1618,31 +1648,31 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3290896320670296</v>
+        <v>16</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0908523413879749</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -1651,31 +1681,31 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3616055396587041</v>
+        <v>15</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0176159066859789</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1684,31 +1714,31 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3558807712010124</v>
+        <v>50</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.345966186690277</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -1717,31 +1747,31 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D36" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3973337359933233</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3726650527938635</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -1750,31 +1780,31 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="B37" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0638073378798569</v>
+        <v>33</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0966867191373773</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -1783,31 +1813,31 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="B38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D38" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2358422879082818</v>
+        <v>23</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3101020654997646</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
-      <c r="F38" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
-      </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -1816,19 +1846,19 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="D39" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2914075055799132</v>
+        <v>30</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2629710722343317</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1836,11 +1866,11 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -1849,31 +1879,31 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="D40" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2309466155594069</v>
+        <v>37</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1359498868422921</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -1890,23 +1920,23 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3649540128585662</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="D41" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3810903518773761</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
-      </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -1915,7 +1945,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1923,23 +1953,23 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0180521501874276</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2741883334340924</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -1948,31 +1978,31 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D43" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.351610424271152</v>
+        <v>32</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2715399517558601</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1981,19 +2011,19 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D44" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1324941453133233</v>
+        <v>15</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1675933279538513</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2001,11 +2031,11 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2014,31 +2044,31 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D45" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3152402044501954</v>
+        <v>21</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1264177089864362</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -2047,31 +2077,31 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="D46" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0528514623212617</v>
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2679573358066967</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -2080,31 +2110,31 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="B47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2027967257474959</v>
+        <v>18</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.328651680837198</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -2117,27 +2147,27 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1157973732625814</v>
+        <v>12</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1674301242174845</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -2146,31 +2176,31 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="D49" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2189863085711401</v>
+        <v>29</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3639784275541751</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2179,31 +2209,31 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D50" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2591898136274051</v>
+        <v>27</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0949723808460585</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -2212,7 +2242,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2220,23 +2250,23 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.338032586931633</v>
+        <v>40</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0368358417657348</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -2245,31 +2275,31 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="D52" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0729168262865629</v>
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2106900209945775</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2278,31 +2308,31 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D53" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0035924203366051</v>
+        <v>19</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3461655286091261</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -2311,31 +2341,31 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D54" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2563421998067956</v>
+        <v>13</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0697653103097682</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2344,19 +2374,19 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D55" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3876840259173702</v>
+        <v>17</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3916067103602507</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2364,11 +2394,11 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -2377,31 +2407,31 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D56" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0812153276526209</v>
+        <v>40</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3133100265803701</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -2410,31 +2440,31 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0409732030583059</v>
+        <v>29</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3861124191294418</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -2443,27 +2473,27 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="D58" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1505378199786387</v>
+        <v>18</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2230811170699831</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -2476,31 +2506,31 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0872221881432909</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="C59" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D59" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1166614211714183</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
       <c r="F59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -2509,31 +2539,31 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.318606433111166</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>28</v>
-      </c>
-      <c r="D60" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2855954708136048</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>37</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -2542,31 +2572,31 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D61" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.333099597751749</v>
+        <v>19</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2529441521207343</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -2575,31 +2605,31 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1165202418887199</v>
+        <v>10</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0544406893189839</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -2608,31 +2638,31 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="B63" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="C63" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D63" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2035632384931425</v>
+      <c r="D63" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2574165355872058</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -2641,31 +2671,31 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="D64" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3876036081319714</v>
+        <v>11</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1651687415683349</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -2674,31 +2704,31 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D65" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2084289481393922</v>
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2611898549766463</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -2707,31 +2737,31 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D66" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0632828593249031</v>
+        <v>9</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1686994849156813</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -2740,31 +2770,31 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" ref="A67:A130" ca="1" si="7">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" ref="B67:B130" ca="1" si="8">RANDBETWEEN(0,C67)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" ref="C67:C130" ca="1" si="9">RANDBETWEEN(0,G67)</f>
-        <v>2</v>
-      </c>
-      <c r="D67" s="7">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
         <f t="shared" ref="D67:D130" ca="1" si="10">1+RAND()*(1.4-1)</f>
-        <v>1.0190002979142183</v>
+        <v>1.0862348792769523</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E130" ca="1" si="11">RANDBETWEEN(0,20)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" ref="F67:F130" ca="1" si="12">RANDBETWEEN(0,G67)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" ref="G67:G130" ca="1" si="13">RANDBETWEEN(0,59)</f>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -2773,31 +2803,31 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D68" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3995758110935546</v>
+        <v>34</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1912380870156887</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -2806,31 +2836,31 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
-      <c r="B69" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D69" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2067781728896438</v>
+        <v>19</v>
+      </c>
+      <c r="D69" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2801083942322014</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -2839,31 +2869,31 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="D70" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3970206506079488</v>
+        <v>40</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1956349613750326</v>
       </c>
       <c r="E70" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2872,7 +2902,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -2882,21 +2912,21 @@
         <f t="shared" ca="1" si="9"/>
         <v>5</v>
       </c>
-      <c r="D71" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1079209500907876</v>
+      <c r="D71" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1334741173985572</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -2905,19 +2935,19 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="D72" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0558112242828139</v>
+        <v>23</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2316612823962085</v>
       </c>
       <c r="E72" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -2925,11 +2955,11 @@
       </c>
       <c r="F72" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -2938,31 +2968,31 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="D73" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3201844110275172</v>
+        <v>25</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0614284177785152</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -2971,31 +3001,31 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="D74" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0412301359210236</v>
+        <v>26</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2825434340490596</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -3004,31 +3034,31 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0381302309618716</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" ca="1" si="12"/>
         <v>6</v>
       </c>
-      <c r="C75" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="D75" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1875937250606023</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>26</v>
-      </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -3037,31 +3067,31 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="D76" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0165972043122555</v>
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3401271287709746</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -3070,31 +3100,31 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="B77" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="D77" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1923340542039311</v>
+        <v>11</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3006988038821734</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -3103,7 +3133,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -3111,23 +3141,23 @@
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="D78" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1178719907398369</v>
+        <v>7</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0160389551064741</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -3136,31 +3166,31 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="D79" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2011943651600498</v>
+        <v>36</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1569814861169838</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -3169,31 +3199,31 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="D80" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2177243151917441</v>
+        <v>18</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1798521355316023</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -3202,31 +3232,31 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B81" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="D81" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3321838956825183</v>
+        <v>7</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1132469843068649</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -3235,23 +3265,23 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="D82" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0055487737635704</v>
+        <v>2</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1682275926340595</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -3259,7 +3289,7 @@
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -3268,19 +3298,19 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B83" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="D83" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3741454984053647</v>
+        <v>32</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0133203066938912</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -3288,11 +3318,11 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -3301,31 +3331,31 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D84" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3902293848528471</v>
+        <v>8</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0342984912128539</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
@@ -3334,31 +3364,31 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B85" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="D85" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3439074811768472</v>
+        <v>21</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1838388876799428</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
@@ -3367,31 +3397,31 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="D86" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3414424854880438</v>
+        <v>14</v>
+      </c>
+      <c r="D86" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.334569954010304</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -3400,31 +3430,31 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="D87" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1240081653152192</v>
+        <v>52</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0331705630011552</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -3433,7 +3463,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B88" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -3441,23 +3471,23 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="D88" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2053220947495042</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>14</v>
       </c>
-      <c r="D88" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.380154035946874</v>
-      </c>
-      <c r="E88" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>6</v>
-      </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
@@ -3466,31 +3496,31 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D89" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3503290067735552</v>
+        <v>29</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1621513950668296</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" ca="1" si="13"/>
         <v>31</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>34</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
@@ -3499,31 +3529,31 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.201040908877524</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>7</v>
       </c>
-      <c r="B90" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C90" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D90" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1106502649764265</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
-      </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -3532,31 +3562,31 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="D91" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3861569490612173</v>
+        <v>14</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.178714240456646</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3565,31 +3595,31 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
-      <c r="B92" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="C92" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="D92" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3133266701271225</v>
+      <c r="D92" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.024579060808289</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -3598,31 +3628,31 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D93" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2921437160645561</v>
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1544152249297441</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
@@ -3631,31 +3661,31 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B94" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="D94" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0614537913856357</v>
+        <v>51</v>
+      </c>
+      <c r="D94" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2727885749882906</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3664,31 +3694,31 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="D95" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3381865124809136</v>
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2712292430593297</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H95" s="3">
         <v>1</v>
@@ -3697,31 +3727,31 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="D96" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2753531730734045</v>
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1179229935633264</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H96" s="3">
         <v>1</v>
@@ -3730,19 +3760,19 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="D97" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2829605922321419</v>
+        <v>34</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1077045703849047</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -3750,11 +3780,11 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -3763,31 +3793,31 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B98" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="D98" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0107745015630805</v>
+        <v>27</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0541884233910608</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H98" s="3">
         <v>1</v>
@@ -3796,31 +3826,31 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>6</v>
       </c>
-      <c r="B99" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>22</v>
-      </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="D99" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0894987199360635</v>
+        <v>17</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1392201976363858</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H99" s="3">
         <v>1</v>
@@ -3829,23 +3859,23 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1895826336985162</v>
+        <v>18</v>
+      </c>
+      <c r="D100" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1489929389563822</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -3853,7 +3883,7 @@
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H100" s="3">
         <v>1</v>
@@ -3862,31 +3892,31 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="D101" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1449960447426526</v>
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0953197823227723</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3899,27 +3929,27 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
-      </c>
-      <c r="D102" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1493004058691574</v>
+        <v>31</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2370880087536587</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3928,7 +3958,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -3936,23 +3966,23 @@
       </c>
       <c r="C103" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D103" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3228856464689924</v>
+        <v>11</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2970908628923044</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" ca="1" si="12"/>
         <v>17</v>
       </c>
-      <c r="F103" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
-      </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -3961,31 +3991,31 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0055900485666647</v>
+        <v>29</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3885480155795158</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="H104" s="3">
         <v>1</v>
@@ -3998,27 +4028,27 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" s="2">
         <f t="shared" ca="1" si="9"/>
         <v>5</v>
       </c>
-      <c r="D105" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0932744531103911</v>
+      <c r="D105" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3057763510640477</v>
       </c>
       <c r="E105" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -4027,31 +4057,31 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1574693133134721</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
-      <c r="B106" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="C106" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="D106" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3981332065094088</v>
-      </c>
-      <c r="E106" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="F106" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>29</v>
-      </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -4060,31 +4090,31 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
-      <c r="C107" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="D107" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1175922056074836</v>
+      <c r="D107" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1038862435157646</v>
       </c>
       <c r="E107" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="H107" s="3">
         <v>1</v>
@@ -4093,31 +4123,31 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D108" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0855324756639853</v>
+        <v>0</v>
+      </c>
+      <c r="D108" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.390158435254087</v>
       </c>
       <c r="E108" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H108" s="3">
         <v>1</v>
@@ -4126,31 +4156,31 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="D109" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3373633745923985</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" ca="1" si="12"/>
         <v>8</v>
       </c>
-      <c r="B109" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C109" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D109" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0795226872530383</v>
-      </c>
-      <c r="E109" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="F109" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
-      </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -4159,31 +4189,31 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1662817196537452</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" ca="1" si="12"/>
         <v>5</v>
       </c>
-      <c r="B110" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="C110" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>47</v>
-      </c>
-      <c r="D110" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3589525793460633</v>
-      </c>
-      <c r="E110" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F110" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>47</v>
-      </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="H110" s="3">
         <v>1</v>
@@ -4192,31 +4222,31 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C111" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="D111" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1659346561011352</v>
+        <v>5</v>
+      </c>
+      <c r="D111" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3502543652838059</v>
       </c>
       <c r="E111" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G111" s="2">
+        <f t="shared" ca="1" si="13"/>
         <v>10</v>
-      </c>
-      <c r="G111" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>28</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -4225,31 +4255,31 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B112" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="D112" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0908562730233629</v>
+        <v>10</v>
+      </c>
+      <c r="D112" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2917502143423092</v>
       </c>
       <c r="E112" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -4258,19 +4288,19 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B113" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D113" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0158085616089541</v>
+        <v>3</v>
+      </c>
+      <c r="D113" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3084926365820573</v>
       </c>
       <c r="E113" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4278,11 +4308,11 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="H113" s="3">
         <v>1</v>
@@ -4291,31 +4321,31 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B114" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="D114" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1428822150383584</v>
+        <v>7</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1995700755499337</v>
       </c>
       <c r="E114" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
@@ -4324,31 +4354,31 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B115" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="D115" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1011264620437171</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3742283914228746</v>
       </c>
       <c r="E115" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
@@ -4357,31 +4387,31 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="D116" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2783557774141774</v>
+        <v>2</v>
+      </c>
+      <c r="D116" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3726441262177111</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -4390,31 +4420,31 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="D117" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2387226066102559</v>
+        <v>13</v>
+      </c>
+      <c r="D117" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2755571923302014</v>
       </c>
       <c r="E117" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H117" s="3">
         <v>1</v>
@@ -4423,31 +4453,31 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="D118" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2752347695839765</v>
+        <v>27</v>
+      </c>
+      <c r="D118" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1401627440409272</v>
       </c>
       <c r="E118" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -4456,31 +4486,31 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B119" s="2">
         <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>5</v>
       </c>
-      <c r="C119" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D119" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.330111935388264</v>
+      <c r="D119" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2704901024583153</v>
       </c>
       <c r="E119" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
@@ -4489,19 +4519,19 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B120" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="D120" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1636608384688141</v>
+        <v>24</v>
+      </c>
+      <c r="D120" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0180904410934537</v>
       </c>
       <c r="E120" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4509,11 +4539,11 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -4522,19 +4552,19 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="D121" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.0775119791206897</v>
+        <v>9</v>
+      </c>
+      <c r="D121" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3021087235486664</v>
       </c>
       <c r="E121" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4546,7 +4576,7 @@
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -4555,31 +4585,31 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B122" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C122" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="D122" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1853721264593919</v>
+        <v>17</v>
+      </c>
+      <c r="D122" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2445580421013169</v>
       </c>
       <c r="E122" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -4588,31 +4618,31 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B123" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="D123" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3822288815207497</v>
+        <v>32</v>
+      </c>
+      <c r="D123" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2592622871601407</v>
       </c>
       <c r="E123" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -4621,31 +4651,31 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B124" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D124" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2203018288549057</v>
+        <v>32</v>
+      </c>
+      <c r="D124" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2441507823423859</v>
       </c>
       <c r="E124" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -4658,27 +4688,27 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C125" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="D125" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3662106925197222</v>
+        <v>14</v>
+      </c>
+      <c r="D125" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1466573560945654</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -4687,7 +4717,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B126" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4695,23 +4725,23 @@
       </c>
       <c r="C126" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="D126" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.371853643499005</v>
+        <v>18</v>
+      </c>
+      <c r="D126" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2231479786685264</v>
       </c>
       <c r="E126" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -4720,31 +4750,31 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B127" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" s="2">
         <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="D127" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1396539630717073</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" ca="1" si="12"/>
         <v>4</v>
       </c>
-      <c r="D127" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2037309863113976</v>
-      </c>
-      <c r="E127" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="F127" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
-      </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -4753,31 +4783,31 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B128" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="D128" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.026157261967124</v>
+        <v>5</v>
+      </c>
+      <c r="D128" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1159059943550729</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F128" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -4790,27 +4820,27 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C129" s="2">
         <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D129" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1170790480221005</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>7</v>
       </c>
-      <c r="D129" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1601589264938146</v>
-      </c>
-      <c r="E129" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>18</v>
-      </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -4819,31 +4849,31 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B130" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C130" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="D130" s="7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3024587490770072</v>
+        <v>14</v>
+      </c>
+      <c r="D130" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3373780151770314</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F130" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -4852,31 +4882,31 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" ref="A131:A150" ca="1" si="14">RANDBETWEEN(0,10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:B150" ca="1" si="15">RANDBETWEEN(0,C131)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C131" s="2">
         <f t="shared" ref="C131:C150" ca="1" si="16">RANDBETWEEN(0,G131)</f>
-        <v>30</v>
-      </c>
-      <c r="D131" s="7">
+        <v>34</v>
+      </c>
+      <c r="D131" s="4">
         <f t="shared" ref="D131:D150" ca="1" si="17">1+RAND()*(1.4-1)</f>
-        <v>1.3457495035788609</v>
+        <v>1.0096759475314698</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" ref="E131:E150" ca="1" si="18">RANDBETWEEN(0,20)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F131" s="2">
         <f t="shared" ref="F131:F150" ca="1" si="19">RANDBETWEEN(0,G131)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ref="G131:G150" ca="1" si="20">RANDBETWEEN(0,59)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -4885,31 +4915,31 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B132" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="D132" s="7">
+        <v>2</v>
+      </c>
+      <c r="D132" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3254863009027795</v>
+        <v>1.2426699045462932</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -4918,31 +4948,31 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
-      </c>
-      <c r="D133" s="7">
+        <v>3</v>
+      </c>
+      <c r="D133" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1633022092750327</v>
+        <v>1.0184075758717339</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -4951,7 +4981,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B134" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -4959,11 +4989,11 @@
       </c>
       <c r="C134" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="D134" s="7">
+        <v>1</v>
+      </c>
+      <c r="D134" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1263816983752895</v>
+        <v>1.102444231085919</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" ca="1" si="18"/>
@@ -4971,11 +5001,11 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -4984,31 +5014,31 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B135" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C135" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="D135" s="7">
+        <v>24</v>
+      </c>
+      <c r="D135" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.15369315729607</v>
+        <v>1.039270497081215</v>
       </c>
       <c r="E135" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F135" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -5017,31 +5047,31 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C136" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>37</v>
-      </c>
-      <c r="D136" s="7">
+        <v>9</v>
+      </c>
+      <c r="D136" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.342370286852923</v>
+        <v>1.3178798488291297</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F136" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -5050,31 +5080,31 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B137" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C137" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2136124803949411</v>
+        <v>1.2549882793949105</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F137" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
@@ -5083,31 +5113,31 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B138" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C138" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
-      </c>
-      <c r="D138" s="7">
+        <v>3</v>
+      </c>
+      <c r="D138" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1776929413841521</v>
+        <v>1.06077422072239</v>
       </c>
       <c r="E138" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F138" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -5116,31 +5146,31 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B139" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="D139" s="7">
+        <v>5</v>
+      </c>
+      <c r="D139" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0278081537033676</v>
+        <v>1.193964136115764</v>
       </c>
       <c r="E139" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F139" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -5149,27 +5179,27 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B140" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="D140" s="7">
+        <v>1</v>
+      </c>
+      <c r="D140" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1693286602725292</v>
+        <v>1.207766431702431</v>
       </c>
       <c r="E140" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F140" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="20"/>
@@ -5182,31 +5212,31 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B141" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="D141" s="7">
+        <v>2</v>
+      </c>
+      <c r="D141" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2913801250996075</v>
+        <v>1.0309313072654471</v>
       </c>
       <c r="E141" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F141" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H141" s="3">
         <v>1</v>
@@ -5215,31 +5245,31 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B142" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C142" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="D142" s="7">
+        <v>31</v>
+      </c>
+      <c r="D142" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2825243024257686</v>
+        <v>1.1838886837999729</v>
       </c>
       <c r="E142" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F142" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -5248,31 +5278,31 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B143" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C143" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>22</v>
-      </c>
-      <c r="D143" s="7">
+        <v>19</v>
+      </c>
+      <c r="D143" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2193288310848502</v>
+        <v>1.3091373433280469</v>
       </c>
       <c r="E143" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F143" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -5281,31 +5311,31 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B144" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C144" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="D144" s="7">
+        <v>0</v>
+      </c>
+      <c r="D144" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3530643261672366</v>
+        <v>1.3871160981131831</v>
       </c>
       <c r="E144" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F144" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -5314,31 +5344,31 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B145" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C145" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="D145" s="7">
+        <v>12</v>
+      </c>
+      <c r="D145" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2835619330833961</v>
+        <v>1.3721836857830207</v>
       </c>
       <c r="E145" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F145" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
@@ -5347,31 +5377,31 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B146" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C146" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="D146" s="7">
+        <v>4</v>
+      </c>
+      <c r="D146" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0439379673420024</v>
+        <v>1.0901981657529696</v>
       </c>
       <c r="E146" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F146" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
@@ -5380,7 +5410,7 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B147" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5388,23 +5418,23 @@
       </c>
       <c r="C147" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D147" s="7">
+        <v>8</v>
+      </c>
+      <c r="D147" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0621410852408517</v>
+        <v>1.2854218637408412</v>
       </c>
       <c r="E147" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F147" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -5413,31 +5443,31 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C148" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="D148" s="7">
+        <v>30</v>
+      </c>
+      <c r="D148" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2459604013857408</v>
+        <v>1.3500521705940778</v>
       </c>
       <c r="E148" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F148" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H148" s="3">
         <v>1</v>
@@ -5446,71 +5476,74 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C149" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="D149" s="7">
+        <v>1</v>
+      </c>
+      <c r="D149" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0950137425215001</v>
+        <v>1.1133623520741058</v>
       </c>
       <c r="E149" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="B150" s="5">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="C150" s="5">
+        <v>24</v>
+      </c>
+      <c r="C150" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="D150" s="8">
+        <v>25</v>
+      </c>
+      <c r="D150" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1338445859331683</v>
-      </c>
-      <c r="E150" s="5">
+        <v>1.3938994199888572</v>
+      </c>
+      <c r="E150" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="F150" s="5">
+        <v>10</v>
+      </c>
+      <c r="F150" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="G150" s="5">
+        <v>13</v>
+      </c>
+      <c r="G150" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="H150" s="6">
+        <v>58</v>
+      </c>
+      <c r="H150" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/dataexc.xlsx
+++ b/data/dataexc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\IA_TRABAJO\pythonProject1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE290480-5ADB-4E92-B198-571A9F813EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0704BB3E-423C-49EE-B774-50059E71C2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{799B7458-B9EC-424A-9A70-3B3D7E6A1E74}"/>
   </bookViews>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,17 +167,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -240,6 +240,12 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -254,31 +260,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2655C6A7-D850-401C-A77F-8A808B9D62EB}" name="Tabla1" displayName="Tabla1" ref="A1:H150" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:H150" xr:uid="{BD987BC4-C78B-4CB3-BB7B-5B19E882A9CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2655C6A7-D850-401C-A77F-8A808B9D62EB}" name="Tabla1" displayName="Tabla1" ref="A1:H169" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:H169" xr:uid="{BD987BC4-C78B-4CB3-BB7B-5B19E882A9CC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{240979BA-B3B7-4D54-A880-CCB219AC5E55}" name="nCoches" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{240979BA-B3B7-4D54-A880-CCB219AC5E55}" name="nCoches" dataDxfId="7">
       <calculatedColumnFormula>RANDBETWEEN(0,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{89EAB55F-A8C6-4A71-90CF-182521499B83}" name="tCoches" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{89EAB55F-A8C6-4A71-90CF-182521499B83}" name="tCoches" dataDxfId="6">
       <calculatedColumnFormula>RANDBETWEEN(0,C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BBF6E771-5999-410F-8DC2-C6B7752AA43E}" name="T1Coche" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{BBF6E771-5999-410F-8DC2-C6B7752AA43E}" name="T1Coche" dataDxfId="5">
       <calculatedColumnFormula>RANDBETWEEN(0,G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{82D6F69E-71EF-43AC-9AEB-A6C16FD3DD34}" name="nCaminos" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{82D6F69E-71EF-43AC-9AEB-A6C16FD3DD34}" name="nCaminos" dataDxfId="4">
       <calculatedColumnFormula>1+RAND()*(1.4-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{315A890C-4AD8-4288-B217-773F6E89774F}" name="nPeatones" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{315A890C-4AD8-4288-B217-773F6E89774F}" name="nPeatones" dataDxfId="3">
       <calculatedColumnFormula>RANDBETWEEN(0,20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3C0696BB-5169-48BC-9D42-286FCD7C6C09}" name="tPeatones" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{3C0696BB-5169-48BC-9D42-286FCD7C6C09}" name="tPeatones" dataDxfId="2">
       <calculatedColumnFormula>RANDBETWEEN(0,G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7143F15B-A84C-497D-8300-A6B2E0F0FB62}" name="ultCambio" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{7143F15B-A84C-497D-8300-A6B2E0F0FB62}" name="ultCambio" dataDxfId="1">
       <calculatedColumnFormula>RANDBETWEEN(0,59)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{219070B3-40E8-4368-AA28-16E25E467451}" name="result" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{219070B3-40E8-4368-AA28-16E25E467451}" name="result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F740F66-27F4-4C4C-B6A9-D14979357AB1}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,31 +631,31 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0,C2)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(0,G2)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">1+RAND()*(1.4-1)</f>
-        <v>1.1578251107925086</v>
+        <v>1.227934886269392</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">RANDBETWEEN(0,G2)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">RANDBETWEEN(0,59)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -658,31 +664,31 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(0,C3)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C66" ca="1" si="2">RANDBETWEEN(0,G3)</f>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D66" ca="1" si="3">1+RAND()*(1.4-1)</f>
-        <v>1.1355248193267724</v>
+        <v>1.3749342944296823</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E66" ca="1" si="4">RANDBETWEEN(0,20)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F66" ca="1" si="5">RANDBETWEEN(0,G3)</f>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G66" ca="1" si="6">RANDBETWEEN(0,59)</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -691,31 +697,31 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1417605945748615</v>
+        <v>1.0871658888804376</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -724,31 +730,31 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1713463212485229</v>
+        <v>1.0200541990613063</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
-      </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -757,31 +763,31 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3023733471651351</v>
+        <v>1.0830754451579336</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -790,31 +796,31 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3615597726261237</v>
+        <v>1.2843079446270294</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -823,19 +829,19 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1029798934291772</v>
+        <v>1.0707993095671313</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -843,11 +849,11 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -856,31 +862,31 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0048482674341499</v>
+        <v>1.1282225846857483</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -889,31 +895,31 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2495140347472309</v>
+        <v>1.3674408280969064</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -922,31 +928,31 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0845691163714457</v>
+        <v>1.0650235482987951</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -955,31 +961,31 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0579513073379436</v>
+        <v>1.2634881926718262</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -988,31 +994,31 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0073431660760555</v>
+        <v>1.0517471088192922</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1021,31 +1027,31 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1485290552092753</v>
+        <v>1.0106100927770774</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -1054,31 +1060,31 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3033553665952917</v>
+        <v>1.1032836390527188</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1087,31 +1093,31 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2350871174185221</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="B16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2326408907394018</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -1120,31 +1126,31 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0904158236442467</v>
+        <v>1.278223548021957</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1153,31 +1159,31 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2480647109484551</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>13</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3464247824410793</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1186,19 +1192,19 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1709849491040389</v>
+        <v>1.2999551977906967</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1206,11 +1212,11 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1219,31 +1225,31 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3070263718852126</v>
+        <v>1.0812861303481882</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1252,31 +1258,31 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
-      </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3339511186675057</v>
+        <v>1.3223158983667229</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1285,31 +1291,31 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
-      <c r="B22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3806804162862834</v>
+        <v>1.0112166962207532</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1318,31 +1324,31 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3122975557985312</v>
+        <v>1.2012092909668948</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1351,31 +1357,31 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1608207863244822</v>
+        <v>1.0516748237270277</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1388,27 +1394,27 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1065520587433724</v>
+        <v>1.3529987603023221</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
@@ -1417,31 +1423,31 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1470527256954632</v>
+        <v>1.0906997528415023</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -1450,31 +1456,31 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2475136188626834</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>19</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.283215057667225</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -1483,31 +1489,31 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0720735522089391</v>
+        <v>1.158514358726346</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
@@ -1516,31 +1522,31 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0692598165020679</v>
+        <v>1.027155021308513</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1549,7 +1555,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1561,19 +1567,19 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0371066251947372</v>
+        <v>1.1505422168158002</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -1582,11 +1588,11 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -1594,19 +1600,19 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1808963215662089</v>
+        <v>1.1275741495053857</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -1615,31 +1621,31 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
-      <c r="B32" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
-      </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1789038961799569</v>
+        <v>1.0059956471903539</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1648,31 +1654,31 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0908523413879749</v>
+        <v>1.303663596531272</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -1681,31 +1687,31 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0176159066859789</v>
+        <v>1.1587586560478367</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
@@ -1714,31 +1720,31 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.345966186690277</v>
+        <v>1.2873490783590433</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -1747,31 +1753,31 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3726650527938635</v>
+        <v>1.2159441329961109</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -1784,27 +1790,27 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0966867191373773</v>
+        <v>1.2483570622901874</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -1813,31 +1819,31 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3101020654997646</v>
+        <v>1.0831469062223271</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
@@ -1850,27 +1856,27 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2629710722343317</v>
+        <v>1.37234667252136</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -1879,31 +1885,31 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3684782100077728</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="B40" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="D40" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1359498868422921</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
       <c r="F40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -1912,31 +1918,31 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
-      <c r="B41" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
       <c r="D41" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3649540128585662</v>
+        <v>1.216468502927293</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -1945,31 +1951,31 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2741883334340924</v>
+        <v>1.0446879203350306</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -1978,31 +1984,31 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
-      <c r="B43" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C43" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
-      </c>
       <c r="D43" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2715399517558601</v>
+        <v>1.2981167404928322</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2011,31 +2017,31 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1675933279538513</v>
+        <v>1.1955949579307013</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -2048,27 +2054,27 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1264177089864362</v>
+        <v>1.273552406474924</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -2077,31 +2083,31 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2679573358066967</v>
+        <v>1.2332219916874863</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
@@ -2110,31 +2116,31 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" ca="1" si="2"/>
+      <c r="D47" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1526675425356709</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>18</v>
       </c>
-      <c r="D47" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.328651680837198</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
-      </c>
       <c r="F47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>1</v>
@@ -2143,31 +2149,31 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1674301242174845</v>
+        <v>1.374182474816708</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -2176,31 +2182,31 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.110531829137394</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" ca="1" si="2"/>
+      <c r="G49" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>29</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3639784275541751</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>43</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2209,31 +2215,31 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3971780459512875</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>26</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="D50" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0949723808460585</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
-      </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -2242,31 +2248,31 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="B51" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C51" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
       <c r="D51" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0368358417657348</v>
+        <v>1.1116491197986804</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H51" s="3">
         <v>1</v>
@@ -2275,31 +2281,31 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2106900209945775</v>
+        <v>1.2452156220764534</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2308,31 +2314,31 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>12</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
       <c r="D53" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3461655286091261</v>
+        <v>1.2742153463479724</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -2341,31 +2347,31 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2700078343478132</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="B54" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="C54" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="D54" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0697653103097682</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
-      </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2378,19 +2384,19 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3916067103602507</v>
+        <v>1.3659339761234865</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -2398,7 +2404,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -2407,31 +2413,31 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
-      <c r="C56" s="2">
-        <f t="shared" ca="1" si="2"/>
+      <c r="D56" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1985917827312189</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>40</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.3133100265803701</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>46</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -2440,31 +2446,31 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3861124191294418</v>
+        <v>1.1060027703352469</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
@@ -2473,19 +2479,19 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2230811170699831</v>
+        <v>1.2247353521725042</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -2493,11 +2499,11 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
@@ -2506,31 +2512,31 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0872221881432909</v>
+        <v>1.339408550502577</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H59" s="3">
         <v>1</v>
@@ -2539,31 +2545,31 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.318606433111166</v>
+        <v>1.3259617824898173</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H60" s="3">
         <v>1</v>
@@ -2572,31 +2578,31 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0991980116343134</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="B61" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C61" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D61" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.2529441521207343</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
-      </c>
       <c r="F61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -2605,31 +2611,31 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0544406893189839</v>
+        <v>1.0562857345345105</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -2638,31 +2644,31 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2574165355872058</v>
+        <v>1.3034256696084354</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -2675,27 +2681,27 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1590777593745036</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
-      <c r="C64" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D64" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1651687415683349</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H64" s="3">
         <v>1</v>
@@ -2704,7 +2710,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2712,23 +2718,23 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2611898549766463</v>
+        <v>1.2757634215574158</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -2737,7 +2743,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2745,23 +2751,23 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1686994849156813</v>
+        <v>1.1907787202173776</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" ca="1" si="6"/>
         <v>10</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
@@ -2770,31 +2776,31 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" ref="A67:A130" ca="1" si="7">RANDBETWEEN(0,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" ref="B67:B130" ca="1" si="8">RANDBETWEEN(0,C67)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C67" s="2">
         <f t="shared" ref="C67:C130" ca="1" si="9">RANDBETWEEN(0,G67)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" ref="D67:D130" ca="1" si="10">1+RAND()*(1.4-1)</f>
-        <v>1.0862348792769523</v>
+        <v>1.2083051152361326</v>
       </c>
       <c r="E67" s="2">
         <f t="shared" ref="E67:E130" ca="1" si="11">RANDBETWEEN(0,20)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" ref="F67:F130" ca="1" si="12">RANDBETWEEN(0,G67)</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" ref="G67:G130" ca="1" si="13">RANDBETWEEN(0,59)</f>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -2803,31 +2809,31 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1912380870156887</v>
+        <v>1.3465418587384166</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -2836,31 +2842,31 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2801083942322014</v>
+        <v>1.1012450520135375</v>
       </c>
       <c r="E69" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -2869,23 +2875,23 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2891506484400872</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>10</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="D70" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1956349613750326</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>18</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -2893,7 +2899,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2902,31 +2908,31 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1334741173985572</v>
+        <v>1.1646862477823017</v>
       </c>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -2935,31 +2941,31 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="D72" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0671696006813769</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>6</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="D72" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.2316612823962085</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>12</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
@@ -2968,31 +2974,31 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D73" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0614284177785152</v>
+        <v>1.2190664105712281</v>
       </c>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
@@ -3001,27 +3007,27 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2825434340490596</v>
+        <v>1.1498533619614895</v>
       </c>
       <c r="E74" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -3034,31 +3040,31 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D75" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0381302309618716</v>
+        <v>1.3444583428464547</v>
       </c>
       <c r="E75" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
@@ -3067,7 +3073,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -3075,23 +3081,23 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3401271287709746</v>
+        <v>1.1527129715860074</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -3100,11 +3106,11 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B77" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -3112,19 +3118,19 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3006988038821734</v>
+        <v>1.2665609701005134</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H77" s="3">
         <v>1</v>
@@ -3133,31 +3139,31 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D78" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0160389551064741</v>
+        <v>1.1196916786080173</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -3174,23 +3180,23 @@
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1569814861169838</v>
+        <v>1.0575916711635502</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H79" s="3">
         <v>1</v>
@@ -3199,31 +3205,31 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D80" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1798521355316023</v>
+        <v>1.0017678363923104</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -3232,31 +3238,31 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B81" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D81" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1132469843068649</v>
+        <v>1.0650741661746153</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -3265,31 +3271,31 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D82" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1682275926340595</v>
+        <v>1.1784455860889425</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -3298,31 +3304,31 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B83" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D83" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0133203066938912</v>
+        <v>1.1935030586894162</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H83" s="3">
         <v>1</v>
@@ -3331,23 +3337,23 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D84" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0342984912128539</v>
+        <v>1.0499013477365142</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -3355,7 +3361,7 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H84" s="3">
         <v>1</v>
@@ -3364,31 +3370,31 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B85" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1838388876799428</v>
+        <v>1.2113910577814642</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H85" s="3">
         <v>1</v>
@@ -3397,31 +3403,31 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.334569954010304</v>
+        <v>1.2077207617412313</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -3430,31 +3436,31 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0331705630011552</v>
+        <v>1.3573326615734678</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -3463,31 +3469,31 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>10</v>
       </c>
-      <c r="B88" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C88" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
       <c r="D88" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2053220947495042</v>
+        <v>1.3453880459429914</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="H88" s="3">
         <v>1</v>
@@ -3496,31 +3502,31 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1621513950668296</v>
+        <v>1.2563235009096956</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H89" s="3">
         <v>1</v>
@@ -3529,31 +3535,31 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="D90" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3085880236659964</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>10</v>
-      </c>
-      <c r="B90" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="C90" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>44</v>
-      </c>
-      <c r="D90" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.201040908877524</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -3562,31 +3568,31 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.178714240456646</v>
+        <v>1.1245971570783426</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3595,31 +3601,31 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>6</v>
       </c>
-      <c r="B92" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C92" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
       <c r="D92" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.024579060808289</v>
+        <v>1.2009052141394008</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -3628,31 +3634,31 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D93" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1544152249297441</v>
+        <v>1.2605820504176313</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H93" s="3">
         <v>1</v>
@@ -3661,31 +3667,31 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D94" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2727885749882906</v>
+        <v>1.0720083587801357</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3694,31 +3700,31 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D95" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2712292430593297</v>
+        <v>1.1646337210205513</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H95" s="3">
         <v>1</v>
@@ -3727,31 +3733,31 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D96" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1179229935633264</v>
+        <v>1.2112635740298423</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H96" s="3">
         <v>1</v>
@@ -3760,31 +3766,31 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D97" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1077045703849047</v>
+        <v>1.0099906059246457</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -3793,31 +3799,31 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>6</v>
       </c>
-      <c r="B98" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
-      </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D98" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0541884233910608</v>
+        <v>1.3728351173740279</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H98" s="3">
         <v>1</v>
@@ -3826,31 +3832,31 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B99" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D99" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1392201976363858</v>
+        <v>1.1985634959718603</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H99" s="3">
         <v>1</v>
@@ -3859,31 +3865,31 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D100" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1489929389563822</v>
+        <v>1.3841718021641034</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H100" s="3">
         <v>1</v>
@@ -3892,31 +3898,31 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D101" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0953197823227723</v>
+        <v>1.2368671417197923</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3925,31 +3931,31 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B102" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D102" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2370880087536587</v>
+        <v>1.2396166275558267</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3958,7 +3964,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -3966,23 +3972,23 @@
       </c>
       <c r="C103" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2970908628923044</v>
+        <v>1.3517110432517869</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H103" s="3">
         <v>1</v>
@@ -3991,31 +3997,31 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D104" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3885480155795158</v>
+        <v>1.2303487038420255</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H104" s="3">
         <v>1</v>
@@ -4024,31 +4030,31 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3057763510640477</v>
+        <v>1.2988598516438117</v>
       </c>
       <c r="E105" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H105" s="3">
         <v>1</v>
@@ -4057,31 +4063,31 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B106" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C106" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D106" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1574693133134721</v>
+        <v>1.2244939682725005</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -4090,31 +4096,31 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C107" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D107" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1038862435157646</v>
+        <v>1.0542322328124767</v>
       </c>
       <c r="E107" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F107" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H107" s="3">
         <v>1</v>
@@ -4123,31 +4129,31 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D108" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.390158435254087</v>
+        <v>1.0766894193487797</v>
       </c>
       <c r="E108" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="H108" s="3">
         <v>1</v>
@@ -4156,7 +4162,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B109" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4164,23 +4170,23 @@
       </c>
       <c r="C109" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D109" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3373633745923985</v>
+        <v>1.0033765835120805</v>
       </c>
       <c r="E109" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F109" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H109" s="3">
         <v>1</v>
@@ -4193,27 +4199,27 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C110" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D110" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1662817196537452</v>
+        <v>1.3871395210795125</v>
       </c>
       <c r="E110" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F110" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H110" s="3">
         <v>1</v>
@@ -4222,31 +4228,31 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C111" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D111" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3502543652838059</v>
+        <v>1.047788593217194</v>
       </c>
       <c r="E111" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -4255,31 +4261,31 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B112" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C112" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D112" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2917502143423092</v>
+        <v>1.1745646144817004</v>
       </c>
       <c r="E112" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -4288,7 +4294,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B113" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4296,23 +4302,23 @@
       </c>
       <c r="C113" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3084926365820573</v>
+        <v>1.331274507526367</v>
       </c>
       <c r="E113" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H113" s="3">
         <v>1</v>
@@ -4321,31 +4327,31 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B114" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C114" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D114" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1995700755499337</v>
+        <v>1.0256595733818987</v>
       </c>
       <c r="E114" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H114" s="3">
         <v>1</v>
@@ -4358,27 +4364,27 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D115" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3742283914228746</v>
+        <v>1.1224993846869729</v>
       </c>
       <c r="E115" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H115" s="3">
         <v>1</v>
@@ -4387,19 +4393,19 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D116" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3726441262177111</v>
+        <v>1.0046373253540428</v>
       </c>
       <c r="E116" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4407,11 +4413,11 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -4420,23 +4426,23 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D117" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2755571923302014</v>
+        <v>1.1202922449970532</v>
       </c>
       <c r="E117" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -4444,7 +4450,7 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H117" s="3">
         <v>1</v>
@@ -4453,31 +4459,31 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
-      <c r="B118" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="C118" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>27</v>
-      </c>
       <c r="D118" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1401627440409272</v>
+        <v>1.2311481172281453</v>
       </c>
       <c r="E118" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G118" s="2">
+        <f t="shared" ca="1" si="13"/>
         <v>21</v>
-      </c>
-      <c r="G118" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>40</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -4486,31 +4492,31 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B119" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2704901024583153</v>
+        <v>1.2595273066345687</v>
       </c>
       <c r="E119" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H119" s="3">
         <v>1</v>
@@ -4519,31 +4525,31 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B120" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D120" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0180904410934537</v>
+        <v>1.260434590481484</v>
       </c>
       <c r="E120" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -4552,31 +4558,31 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="D121" s="4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0590333924394131</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>7</v>
-      </c>
-      <c r="B121" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="C121" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="D121" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.3021087235486664</v>
-      </c>
-      <c r="E121" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>13</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H121" s="3">
         <v>1</v>
@@ -4585,7 +4591,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B122" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4593,23 +4599,23 @@
       </c>
       <c r="C122" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D122" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2445580421013169</v>
+        <v>1.3872266537330438</v>
       </c>
       <c r="E122" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H122" s="3">
         <v>1</v>
@@ -4618,31 +4624,31 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B123" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D123" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2592622871601407</v>
+        <v>1.3676126402065449</v>
       </c>
       <c r="E123" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -4651,31 +4657,31 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D124" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2441507823423859</v>
+        <v>1.1762666800117119</v>
       </c>
       <c r="E124" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -4684,31 +4690,30 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B125" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C125" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1466573560945654</v>
+        <v>1.0398501745343518</v>
       </c>
       <c r="E125" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -4717,19 +4722,19 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B126" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C126" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D126" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2231479786685264</v>
+        <v>1.1939717905050484</v>
       </c>
       <c r="E126" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4737,11 +4742,11 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -4750,7 +4755,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B127" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4758,23 +4763,23 @@
       </c>
       <c r="C127" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D127" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1396539630717073</v>
+        <v>1.2048748738794419</v>
       </c>
       <c r="E127" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F127" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H127" s="3">
         <v>1</v>
@@ -4783,31 +4788,31 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>6</v>
       </c>
-      <c r="B128" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
       <c r="C128" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D128" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1159059943550729</v>
+        <v>1.2752040574099355</v>
       </c>
       <c r="E128" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F128" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H128" s="3">
         <v>1</v>
@@ -4816,31 +4821,31 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B129" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D129" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1170790480221005</v>
+        <v>1.1469350744345514</v>
       </c>
       <c r="E129" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H129" s="3">
         <v>1</v>
@@ -4849,31 +4854,31 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B130" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C130" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D130" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3373780151770314</v>
+        <v>1.047161401927595</v>
       </c>
       <c r="E130" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F130" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H130" s="3">
         <v>1</v>
@@ -4882,31 +4887,31 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" ref="A131:A150" ca="1" si="14">RANDBETWEEN(0,10)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:B150" ca="1" si="15">RANDBETWEEN(0,C131)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C131" s="2">
         <f t="shared" ref="C131:C150" ca="1" si="16">RANDBETWEEN(0,G131)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D131" s="4">
         <f t="shared" ref="D131:D150" ca="1" si="17">1+RAND()*(1.4-1)</f>
-        <v>1.0096759475314698</v>
+        <v>1.2215689964939207</v>
       </c>
       <c r="E131" s="2">
         <f t="shared" ref="E131:E150" ca="1" si="18">RANDBETWEEN(0,20)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" s="2">
         <f t="shared" ref="F131:F150" ca="1" si="19">RANDBETWEEN(0,G131)</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ref="G131:G150" ca="1" si="20">RANDBETWEEN(0,59)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H131" s="3">
         <v>1</v>
@@ -4915,7 +4920,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -4923,23 +4928,23 @@
       </c>
       <c r="C132" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D132" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2426699045462932</v>
+        <v>1.3626888820987961</v>
       </c>
       <c r="E132" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -4948,31 +4953,31 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D133" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0184075758717339</v>
+        <v>1.0405233899819393</v>
       </c>
       <c r="E133" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -4981,7 +4986,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B134" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -4989,23 +4994,23 @@
       </c>
       <c r="C134" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.102444231085919</v>
+        <v>1.2163453681714012</v>
       </c>
       <c r="E134" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F134" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H134" s="3">
         <v>1</v>
@@ -5014,31 +5019,31 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B135" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C135" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D135" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.039270497081215</v>
+        <v>1.1293419190471135</v>
       </c>
       <c r="E135" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F135" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H135" s="3">
         <v>1</v>
@@ -5047,31 +5052,31 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C136" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D136" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3178798488291297</v>
+        <v>1.2894271778513797</v>
       </c>
       <c r="E136" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H136" s="3">
         <v>1</v>
@@ -5080,31 +5085,31 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B137" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C137" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D137" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2549882793949105</v>
+        <v>1.3555025855776521</v>
       </c>
       <c r="E137" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F137" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
@@ -5113,31 +5118,31 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B138" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C138" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D138" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.06077422072239</v>
+        <v>1.2592038074074188</v>
       </c>
       <c r="E138" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F138" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -5146,19 +5151,19 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B139" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C139" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D139" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.193964136115764</v>
+        <v>1.1892892000145665</v>
       </c>
       <c r="E139" s="2">
         <f t="shared" ca="1" si="18"/>
@@ -5166,11 +5171,11 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H139" s="3">
         <v>1</v>
@@ -5179,7 +5184,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B140" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5187,23 +5192,23 @@
       </c>
       <c r="C140" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.207766431702431</v>
+        <v>1.2558954325828098</v>
       </c>
       <c r="E140" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F140" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -5212,11 +5217,11 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B141" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141" s="2">
         <f t="shared" ca="1" si="16"/>
@@ -5224,19 +5229,19 @@
       </c>
       <c r="D141" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0309313072654471</v>
+        <v>1.0921599346829198</v>
       </c>
       <c r="E141" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F141" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H141" s="3">
         <v>1</v>
@@ -5245,31 +5250,31 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B142" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D142" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1838886837999729</v>
+        <v>1.0542613494299053</v>
       </c>
       <c r="E142" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F142" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -5282,27 +5287,27 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D143" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3091373433280469</v>
+        <v>1.1597365336518353</v>
       </c>
       <c r="E143" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F143" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -5311,31 +5316,31 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B144" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C144" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D144" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3871160981131831</v>
+        <v>1.0120660699995754</v>
       </c>
       <c r="E144" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F144" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H144" s="3">
         <v>1</v>
@@ -5344,7 +5349,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B145" s="2">
         <f t="shared" ca="1" si="15"/>
@@ -5352,23 +5357,23 @@
       </c>
       <c r="C145" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D145" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3721836857830207</v>
+        <v>1.0613750379303717</v>
       </c>
       <c r="E145" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F145" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
@@ -5381,27 +5386,27 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C146" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D146" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0901981657529696</v>
+        <v>1.1068883294670842</v>
       </c>
       <c r="E146" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F146" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
@@ -5410,31 +5415,31 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B147" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C147" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2854218637408412</v>
+        <v>1.2012744939267566</v>
       </c>
       <c r="E147" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F147" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H147" s="3">
         <v>1</v>
@@ -5443,31 +5448,31 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B148" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C148" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D148" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3500521705940778</v>
+        <v>1.0625871129801934</v>
       </c>
       <c r="E148" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F148" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H148" s="3">
         <v>1</v>
@@ -5476,31 +5481,31 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B149" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C149" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D149" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1133623520741058</v>
+        <v>1.3648241816637499</v>
       </c>
       <c r="E149" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F149" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
@@ -5509,33 +5514,660 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B150" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C150" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D150" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3938994199888572</v>
+        <v>1.1478138459525498</v>
       </c>
       <c r="E150" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F150" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <f t="shared" ref="A151:A161" ca="1" si="21">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="B151" s="8">
+        <f t="shared" ref="B151:B161" ca="1" si="22">RANDBETWEEN(0,C151)</f>
+        <v>18</v>
+      </c>
+      <c r="C151" s="8">
+        <f t="shared" ref="C151:C161" ca="1" si="23">RANDBETWEEN(0,G151)</f>
+        <v>34</v>
+      </c>
+      <c r="D151" s="9">
+        <f t="shared" ref="D151:D161" ca="1" si="24">1+RAND()*(1.4-1)</f>
+        <v>1.3181783176438566</v>
+      </c>
+      <c r="E151" s="8">
+        <f t="shared" ref="E151:E161" ca="1" si="25">RANDBETWEEN(0,20)</f>
+        <v>3</v>
+      </c>
+      <c r="F151" s="8">
+        <f t="shared" ref="F151:F161" ca="1" si="26">RANDBETWEEN(0,G151)</f>
+        <v>24</v>
+      </c>
+      <c r="G151" s="8">
+        <f t="shared" ref="G151:G161" ca="1" si="27">RANDBETWEEN(0,59)</f>
+        <v>54</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="B152" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C152" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D152" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.3640091972082593</v>
+      </c>
+      <c r="E152" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="F152" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>46</v>
+      </c>
+      <c r="G152" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>49</v>
+      </c>
+      <c r="H152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="B153" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="C153" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="D153" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.1024631754515517</v>
+      </c>
+      <c r="E153" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="F153" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="G153" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="B154" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="C154" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="D154" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.2916295507781697</v>
+      </c>
+      <c r="E154" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="F154" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>12</v>
+      </c>
+      <c r="G154" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="B155" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D155" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.1093721627567885</v>
+      </c>
+      <c r="E155" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="F155" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G155" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="H155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="B156" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="C156" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="D156" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.120512995642198</v>
+      </c>
+      <c r="E156" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="F156" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="G156" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="B157" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="C157" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="D157" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.3101007464136163</v>
+      </c>
+      <c r="E157" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="F157" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="G157" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="B158" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="C158" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="D158" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.1117012987446377</v>
+      </c>
+      <c r="E158" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="F158" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="G158" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>59</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="B159" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="C159" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="D159" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.2928664965699033</v>
+      </c>
+      <c r="E159" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="F159" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="G159" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B160" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="C160" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="D160" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.143581178744151</v>
+      </c>
+      <c r="E160" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="F160" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="G160" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B161" s="8">
+        <f t="shared" ca="1" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="C161" s="8">
+        <f t="shared" ca="1" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="D161" s="9">
+        <f t="shared" ca="1" si="24"/>
+        <v>1.1362419487681248</v>
+      </c>
+      <c r="E161" s="8">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="F161" s="8">
+        <f t="shared" ca="1" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="G161" s="8">
+        <f t="shared" ca="1" si="27"/>
+        <v>56</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <f t="shared" ref="A162:A169" ca="1" si="28">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="B162" s="8">
+        <f t="shared" ref="B162:B169" ca="1" si="29">RANDBETWEEN(0,C162)</f>
+        <v>1</v>
+      </c>
+      <c r="C162" s="8">
+        <f t="shared" ref="C162:C169" ca="1" si="30">RANDBETWEEN(0,G162)</f>
+        <v>10</v>
+      </c>
+      <c r="D162" s="9">
+        <f t="shared" ref="D162:D169" ca="1" si="31">1+RAND()*(1.4-1)</f>
+        <v>1.0969161381712014</v>
+      </c>
+      <c r="E162" s="8">
+        <f t="shared" ref="E162:E169" ca="1" si="32">RANDBETWEEN(0,20)</f>
+        <v>13</v>
+      </c>
+      <c r="F162" s="8">
+        <f t="shared" ref="F162:F169" ca="1" si="33">RANDBETWEEN(0,G162)</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="8">
+        <f t="shared" ref="G162:G169" ca="1" si="34">RANDBETWEEN(0,59)</f>
+        <v>26</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="B163" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C163" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="D163" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.0069044213123861</v>
+      </c>
+      <c r="E163" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>20</v>
+      </c>
+      <c r="F163" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G163" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="B164" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C164" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="D164" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.0824190167904113</v>
+      </c>
+      <c r="E164" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F164" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="G164" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="B165" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="C165" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>23</v>
+      </c>
+      <c r="D165" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.3685313800406966</v>
+      </c>
+      <c r="E165" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="F165" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>26</v>
+      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="B166" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="C166" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="D166" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.1347242055280338</v>
+      </c>
+      <c r="E166" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>14</v>
+      </c>
+      <c r="F166" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="G166" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>34</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="B167" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="C167" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>11</v>
+      </c>
+      <c r="D167" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.1619195188765972</v>
+      </c>
+      <c r="E167" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>15</v>
+      </c>
+      <c r="F167" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G167" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="B168" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="C168" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>12</v>
+      </c>
+      <c r="D168" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.2361133103331214</v>
+      </c>
+      <c r="E168" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>19</v>
+      </c>
+      <c r="F168" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>13</v>
+      </c>
+      <c r="G168" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="B169" s="8">
+        <f t="shared" ca="1" si="29"/>
+        <v>25</v>
+      </c>
+      <c r="C169" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>54</v>
+      </c>
+      <c r="D169" s="9">
+        <f t="shared" ca="1" si="31"/>
+        <v>1.0528336082348346</v>
+      </c>
+      <c r="E169" s="8">
+        <f t="shared" ca="1" si="32"/>
+        <v>17</v>
+      </c>
+      <c r="F169" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>52</v>
+      </c>
+      <c r="G169" s="8">
+        <f t="shared" ca="1" si="34"/>
+        <v>56</v>
+      </c>
+      <c r="H169" s="3">
         <v>1</v>
       </c>
     </row>
